--- a/scripts/output.xlsx
+++ b/scripts/output.xlsx
@@ -642,155 +642,155 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65.25</v>
+        <v>160.03</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(8.39, 0.24)</t>
+          <t>(6.77, 0.26)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(2.88, 0.2)</t>
+          <t>(3.41, 0.26)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(2.6, 0.2)</t>
+          <t>(2.49, 0.26)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.28, 0.0)</t>
+          <t>(0.92, 0.01)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.09, 0.0)</t>
+          <t>(0.06, 0.0)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(40.04, 0.79)</t>
+          <t>(51.73, 1.15)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(64.07, 0.88)</t>
+          <t>(73.08, 0.68)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(74.02, 0.77)</t>
+          <t>(85.34, 0.49)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(86.51, 1.03)</t>
+          <t>(91.25, 0.43)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(76.09, 0.75)</t>
+          <t>(86.37, 0.52)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>(88.02, 0.89)</t>
+          <t>(91.73, 0.43)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>(33.53, 0.53)</t>
+          <t>(47.93, 0.96)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>(71.95, 0.99)</t>
+          <t>(83.84, 0.5)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>(74.25, 1.08)</t>
+          <t>(84.88, 0.56)</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>782.97</v>
+        <v>638.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>239.77</v>
+        <v>228.39</v>
       </c>
       <c r="R2" t="n">
-        <v>28.01</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>499.92</v>
+        <v>293.77</v>
       </c>
       <c r="T2" t="n">
-        <v>68.08</v>
+        <v>73.33</v>
       </c>
       <c r="U2" t="n">
-        <v>85.88</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>86.45999999999999</v>
+        <v>91.64</v>
       </c>
       <c r="W2" t="n">
-        <v>92.37</v>
+        <v>94.81</v>
       </c>
       <c r="X2" t="n">
-        <v>89.92</v>
+        <v>92.72</v>
       </c>
       <c r="Y2" t="n">
-        <v>94.75</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>68.8</v>
+        <v>73.73</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.17</v>
+        <v>91.48</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.09</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>783.55</v>
+        <v>642.0599999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>242.74</v>
+        <v>226.09</v>
       </c>
       <c r="AE2" t="n">
-        <v>26.91</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>498.74</v>
+        <v>295.45</v>
       </c>
       <c r="AG2" t="n">
-        <v>41.24</v>
+        <v>49.69</v>
       </c>
       <c r="AH2" t="n">
-        <v>63.17</v>
+        <v>70.69</v>
       </c>
       <c r="AI2" t="n">
-        <v>77.52</v>
+        <v>84.03</v>
       </c>
       <c r="AJ2" t="n">
-        <v>88.08</v>
+        <v>90.89</v>
       </c>
       <c r="AK2" t="n">
-        <v>79.13</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AL2" t="n">
-        <v>89.31</v>
+        <v>91.37</v>
       </c>
       <c r="AM2" t="n">
-        <v>32.5</v>
+        <v>44.24</v>
       </c>
       <c r="AN2" t="n">
-        <v>72.76000000000001</v>
+        <v>80.41</v>
       </c>
       <c r="AO2" t="n">
-        <v>74.61</v>
+        <v>81.31999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/output.xlsx
+++ b/scripts/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,155 +642,155 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>160.03</v>
+        <v>264.43</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(6.77, 0.26)</t>
+          <t>(13.69, 0.51)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(3.41, 0.26)</t>
+          <t>(5.55, 0.14)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(2.49, 0.26)</t>
+          <t>(4.49, 0.3)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.92, 0.01)</t>
+          <t>(1.06, 0.17)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.06, 0.0)</t>
+          <t>(7.83, 0.37)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(51.73, 1.15)</t>
+          <t>(5.25, 0.52)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(73.08, 0.68)</t>
+          <t>(13.76, 0.61)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(85.34, 0.49)</t>
+          <t>(11.55, 1.05)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(91.25, 0.43)</t>
+          <t>(29.17, 1.21)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(86.37, 0.52)</t>
+          <t>(19.27, 1.02)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>(91.73, 0.43)</t>
+          <t>(43.21, 1.1)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>(47.93, 0.96)</t>
+          <t>(1.94, 0.26)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>(83.84, 0.5)</t>
+          <t>(3.8, 0.29)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>(84.88, 0.56)</t>
+          <t>(11.25, 0.6)</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>638.9</v>
+        <v>1366.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>228.39</v>
+        <v>457.39</v>
       </c>
       <c r="R2" t="n">
-        <v>91.81999999999999</v>
+        <v>90.95</v>
       </c>
       <c r="S2" t="n">
-        <v>293.77</v>
+        <v>788.61</v>
       </c>
       <c r="T2" t="n">
-        <v>73.33</v>
+        <v>30.06</v>
       </c>
       <c r="U2" t="n">
-        <v>87.56999999999999</v>
+        <v>55.55</v>
       </c>
       <c r="V2" t="n">
-        <v>91.64</v>
+        <v>36.69</v>
       </c>
       <c r="W2" t="n">
-        <v>94.81</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>92.72</v>
+        <v>45.59</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.34999999999999</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>73.73</v>
+        <v>23.73</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.48</v>
+        <v>28.21</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.56999999999999</v>
+        <v>39.25</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.0599999999999</v>
+        <v>1354.18</v>
       </c>
       <c r="AD2" t="n">
-        <v>226.09</v>
+        <v>448.65</v>
       </c>
       <c r="AE2" t="n">
-        <v>95.84999999999999</v>
+        <v>94.47</v>
       </c>
       <c r="AF2" t="n">
-        <v>295.45</v>
+        <v>781.54</v>
       </c>
       <c r="AG2" t="n">
-        <v>49.69</v>
+        <v>4.27</v>
       </c>
       <c r="AH2" t="n">
-        <v>70.69</v>
+        <v>11.14</v>
       </c>
       <c r="AI2" t="n">
-        <v>84.03</v>
+        <v>9.93</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90.89</v>
+        <v>27.01</v>
       </c>
       <c r="AK2" t="n">
-        <v>84.90000000000001</v>
+        <v>16.28</v>
       </c>
       <c r="AL2" t="n">
-        <v>91.37</v>
+        <v>38.33</v>
       </c>
       <c r="AM2" t="n">
-        <v>44.24</v>
+        <v>1.6</v>
       </c>
       <c r="AN2" t="n">
-        <v>80.41</v>
+        <v>3.01</v>
       </c>
       <c r="AO2" t="n">
-        <v>81.31999999999999</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
